--- a/teampj_naming.xlsx
+++ b/teampj_naming.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="17235" windowHeight="8070"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="17235" windowHeight="8070" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="파일명 통일" sheetId="1" r:id="rId1"/>
+    <sheet name="용어, 변수 통일" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>사이트 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내 정보 조회 사이트에서 (수정) 버튼으로 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게시판 기능. 구현 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,6 +139,118 @@
   </si>
   <si>
     <t>내 정보가 아닌 게시판의 다른 유저 정보를 보는 기능 - 구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 정보 조회 사이트에서 (수정) 버튼으로 구현 - 범하 구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어, 변수 통일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 비밀번호 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 회원 이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 폰번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 프사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password_check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_birthdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_button</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,12 +275,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,11 +303,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -626,7 +743,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -649,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -665,14 +782,14 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -684,7 +801,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -692,10 +809,10 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -880,12 +997,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="33.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="8" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
